--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1489,10 +1501,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1536,28 +1548,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1582,28 +1594,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1906,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1941,28 +1953,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +1999,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2299,10 +2311,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2346,28 +2358,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2392,28 +2404,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2658,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2693,28 +2705,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2739,28 +2751,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2877,10 +2889,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2924,28 +2936,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2970,28 +2982,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3369,10 +3381,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3416,28 +3428,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3462,28 +3474,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3716,10 +3728,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3763,28 +3775,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3809,28 +3821,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4034,10 +4046,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4081,28 +4093,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4127,28 +4139,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4410,10 +4422,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4457,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4503,28 +4515,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4641,10 +4653,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4688,28 +4700,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4734,28 +4746,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4959,10 +4971,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
+      <c r="J167" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5006,28 +5018,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5052,28 +5064,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5202,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5237,28 +5249,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5295,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
